--- a/data/resources_formats - 2025-11-01.xlsx
+++ b/data/resources_formats - 2025-11-01.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,7 +542,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2e9d965f-83c4-44b1-ba09-7c387fbf4e9d</t>
+          <t>22aef563-3e87-4ed9-92e8-d764dc02f426</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>9379</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -560,72 +560,72 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ДСА</t>
+          <t>Мін’юст</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Протоколи автоматизованого розподілу судових справ між суддями*</t>
+          <t>Інформація з автоматизованої системи виконавчого провадження*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30442100-2b7a-4d69-8816-8e3dd5da2492</t>
+          <t>2e9d965f-83c4-44b1-ba09-7c387fbf4e9d</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9379</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Держфінмоніторинг</t>
+          <t>ДСА</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Перелік осіб, пов’язаних з провадженням терористичної діяльності або стосовно яких застосовано міжнародні санкції*</t>
+          <t>Протоколи автоматизованого розподілу судових справ між суддями*</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3ebbff3f-d291-4af3-ab5e-2924079a0c7b</t>
+          <t>30442100-2b7a-4d69-8816-8e3dd5da2492</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C9">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Конституційний Суд України</t>
+          <t>Держфінмоніторинг</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Акти Конституційного Суду України за результатами конституційного провадження*</t>
+          <t>Перелік осіб, пов’язаних з провадженням терористичної діяльності або стосовно яких застосовано міжнародні санкції*</t>
         </is>
       </c>
     </row>
@@ -637,15 +637,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>43ba0bae-802c-4193-8713-f3437140deb3</t>
+          <t>3ebbff3f-d291-4af3-ab5e-2924079a0c7b</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -680,28 +680,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ДСА</t>
+          <t>Конституційний Суд України</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Судова статистика (річні звіти про здійснення правосуддя місцевими та апеляційними судами)*</t>
+          <t>Акти Конституційного Суду України за результатами конституційного провадження*</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>44438a21-0538-4d33-a3f1-5693a77cc70c</t>
+          <t>43ba0bae-802c-4193-8713-f3437140deb3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -710,28 +710,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Вища рада правосуддя</t>
+          <t>ДСА</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Реєстр повідомлень суддів про втручання у здійснення правосуддя*</t>
+          <t>Судова статистика (річні звіти про здійснення правосуддя місцевими та апеляційними судами)*</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4725d7d2-95aa-4239-a832-7f1d484c4120</t>
+          <t>44438a21-0538-4d33-a3f1-5693a77cc70c</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>НКРЕКП</t>
+          <t>Вища рада правосуддя</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ліцензійний реєстр НКРЕКП*</t>
+          <t>Реєстр повідомлень суддів про втручання у здійснення правосуддя*</t>
         </is>
       </c>
     </row>
@@ -757,11 +757,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -782,16 +782,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>48b4055b-c09e-4d33-857e-8d139ce2f0b3</t>
+          <t>4725d7d2-95aa-4239-a832-7f1d484c4120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -800,28 +800,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Український національний офіс інтелектуальної власності та інновацій</t>
+          <t>НКРЕКП</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Державний реєстр договорів, що стосуються права автора на твір*</t>
+          <t>Ліцензійний реєстр НКРЕКП*</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4b4dc451-414f-40e3-88e8-c642eb9b2f31</t>
+          <t>48b4055b-c09e-4d33-857e-8d139ce2f0b3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -830,12 +830,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Вища рада правосуддя</t>
+          <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Рішення Вищої ради правосуддя, зокрема її органів (з фіксацією результатів відкритого поіменного голосування, крім випадків проведення голосування у спеціальному приміщенні (нарадчій кімнаті) на підставі Закону України “Про Вищу раду правосуддя”*</t>
+          <t>Державний реєстр договорів, що стосуються права автора на твір*</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C17">
@@ -855,7 +855,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -872,12 +872,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4cd398bc-cd41-416b-9540-b934759b0788</t>
+          <t>4b4dc451-414f-40e3-88e8-c642eb9b2f31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C18">
@@ -885,29 +885,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Український національний офіс інтелектуальної власності та інновацій</t>
+          <t>Вища рада правосуддя</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Державний реєстр свідоцтв про реєстрацію авторського права на твір*</t>
+          <t>Рішення Вищої ради правосуддя, зокрема її органів (з фіксацією результатів відкритого поіменного голосування, крім випадків проведення голосування у спеціальному приміщенні (нарадчій кімнаті) на підставі Закону України “Про Вищу раду правосуддя”*</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4dd4255c-f045-4d0e-a3cf-b64cfc9c6656</t>
+          <t>4cd398bc-cd41-416b-9540-b934759b0788</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C19">
@@ -920,12 +920,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Держстат</t>
+          <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Офіційна державна статистична інформація, що поширюється відповідно до плану державних статистичних спостережень*</t>
+          <t>Державний реєстр свідоцтв про реєстрацію авторського права на твір*</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C20">
@@ -962,12 +962,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>560e5f5d-0b8b-491e-a0b1-72eb08602edc</t>
+          <t>4dd4255c-f045-4d0e-a3cf-b64cfc9c6656</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C21">
@@ -980,12 +980,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Національне агентство з питань запобігання корупції</t>
+          <t>Держстат</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Єдиний державний реєстр осіб, які вчинили корупційні або пов’язані з корупцією правопорушення*</t>
+          <t>Офіційна державна статистична інформація, що поширюється відповідно до плану державних статистичних спостережень*</t>
         </is>
       </c>
     </row>
@@ -997,11 +997,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1027,11 +1027,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1052,16 +1052,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5ee066f3-9104-4f7e-9f1f-d05e39079e38</t>
+          <t>560e5f5d-0b8b-491e-a0b1-72eb08602edc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C24">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1070,28 +1070,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Вища рада правосуддя</t>
+          <t>Національне агентство з питань запобігання корупції</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Інформація про притягнення суддів до дисциплінарної відповідальності*</t>
+          <t>Єдиний державний реєстр осіб, які вчинили корупційні або пов’язані з корупцією правопорушення*</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5f505c07-1a29-4999-98c8-572fcf965a00</t>
+          <t>5ee066f3-9104-4f7e-9f1f-d05e39079e38</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1100,28 +1100,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Український національний офіс інтелектуальної власності та інновацій</t>
+          <t>Вища рада правосуддя</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Державний реєстр свідоцтв України на торговельні марки*</t>
+          <t>Інформація про притягнення суддів до дисциплінарної відповідальності*</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6391e127-4dc5-41eb-94f8-a89050c54ee2</t>
+          <t>5f505c07-1a29-4999-98c8-572fcf965a00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1130,28 +1130,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Список кандидатів, зарахованих до резерву на заміщення вакантних посад суддів*</t>
+          <t>Державний реєстр свідоцтв України на торговельні марки*</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>66fda13b-61d2-4584-b417-80eff4c57088</t>
+          <t>6391e127-4dc5-41eb-94f8-a89050c54ee2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1160,12 +1160,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Вища рада правосуддя</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Інформація про автоматизований розподіл справ (зокрема дисциплінарних скарг) між членами Вищої ради правосуддя та дисциплінарними інспекторами*</t>
+          <t>Список кандидатів, зарахованих до резерву на заміщення вакантних посад суддів*</t>
         </is>
       </c>
     </row>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6edd26dd-2976-42d3-8455-ff493ca584b4</t>
+          <t>66fda13b-61d2-4584-b417-80eff4c57088</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1220,19 +1220,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Вища рада правосуддя</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Інформація про результати кваліфікаційного іспиту в межах процедури добору кандидатів на посаду судді*</t>
+          <t>Інформація про автоматизований розподіл справ (зокрема дисциплінарних скарг) між членами Вищої ради правосуддя та дисциплінарними інспекторами*</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>716cd7d6-518a-465e-aa8e-cf971233a8da</t>
+          <t>6edd26dd-2976-42d3-8455-ff493ca584b4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1250,12 +1250,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Укртрансбезпека</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ліцензійний реєстр провадження господарської діяльності з перевезення пасажирів, небезпечних вантажів та небезпечних відходів автомобільним, залізничним транспортом, міжнародних перевезень пасажирів та вантажів автомобільним транспортом (чинні ліцензії)*</t>
+          <t>Інформація про результати кваліфікаційного іспиту в межах процедури добору кандидатів на посаду судді*</t>
         </is>
       </c>
     </row>
@@ -1267,15 +1267,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C31">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1292,30 +1292,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>735f33ab-d0d7-409d-81c7-164370712266</t>
+          <t>716cd7d6-518a-465e-aa8e-cf971233a8da</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Верховна Рада України</t>
+          <t>Укртрансбезпека</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Інформація про законопроекти, зареєстровані у Верховній Раді України Нормативно-правова база України (база даних “Законодавство України”)*</t>
+          <t>Ліцензійний реєстр провадження господарської діяльності з перевезення пасажирів, небезпечних вантажів та небезпечних відходів автомобільним, залізничним транспортом, міжнародних перевезень пасажирів та вантажів автомобільним транспортом (чинні ліцензії)*</t>
         </is>
       </c>
     </row>
@@ -1327,15 +1327,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1357,15 +1357,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TSV</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1417,15 +1417,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TSV</t>
         </is>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1477,11 +1477,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>інші</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1502,16 +1502,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7576fcf4-d79f-49af-ab1e-be0671116a57</t>
+          <t>735f33ab-d0d7-409d-81c7-164370712266</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>інші</t>
         </is>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1520,12 +1520,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Агентство відновлення</t>
+          <t>Верховна Рада України</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Інформація про аварійно-небезпечні ділянки та місця (ділянки) концентрації дорожньо-транспортних пригод на автомобільних дорогах загального користування державного значення*</t>
+          <t>Інформація про законопроекти, зареєстровані у Верховній Раді України Нормативно-правова база України (база даних “Законодавство України”)*</t>
         </is>
       </c>
     </row>
@@ -1537,15 +1537,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C41">
@@ -1597,15 +1597,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>PDF</t>
         </is>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1627,11 +1627,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>783b9b50-faba-4cc9-a393-60485e395b1d</t>
+          <t>7576fcf4-d79f-49af-ab1e-be0671116a57</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C44">
@@ -1665,47 +1665,47 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Мін’юст</t>
+          <t>Агентство відновлення</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Єдиний реєстр боржників*</t>
+          <t>Інформація про аварійно-небезпечні ділянки та місця (ділянки) концентрації дорожньо-транспортних пригод на автомобільних дорогах загального користування державного значення*</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7b0f55ab-adcb-4ef4-91fb-07ad0fdcaf8f</t>
+          <t>783b9b50-faba-4cc9-a393-60485e395b1d</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Казначейство</t>
+          <t>Мін’юст</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Звітність про виконання Державного бюджету України на відповідний рік відповідно до вимог статей 59-60 Бюджетного кодексу України*</t>
+          <t>Єдиний реєстр боржників*</t>
         </is>
       </c>
     </row>
@@ -1717,15 +1717,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1747,15 +1747,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C47">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1777,15 +1777,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>НЕ ВКАЗАНО</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>не вказано</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1802,30 +1802,30 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7c1dc916-29af-4f33-89fc-77b119a2e24d</t>
+          <t>7b0f55ab-adcb-4ef4-91fb-07ad0fdcaf8f</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>НЕ ВКАЗАНО</t>
         </is>
       </c>
       <c r="C49">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>не вказано</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Верховна Рада України</t>
+          <t>Казначейство</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Інформація про народних депутатів України, їх активність*</t>
+          <t>Звітність про виконання Державного бюджету України на відповідний рік відповідно до вимог статей 59-60 Бюджетного кодексу України*</t>
         </is>
       </c>
     </row>
@@ -1837,15 +1837,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C51">
@@ -1897,11 +1897,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JPG</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1927,15 +1927,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>JPG</t>
         </is>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1957,15 +1957,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C54">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1987,15 +1987,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2017,11 +2017,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2047,11 +2047,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XSD</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2072,30 +2072,30 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7df8d2ec-ba3c-44fc-99b2-901923515c3c</t>
+          <t>7c1dc916-29af-4f33-89fc-77b119a2e24d</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7Z</t>
+          <t>XSD</t>
         </is>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Верховна Рада України</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Відомості щодо ефективності здійснення судочинства суддями*</t>
+          <t>Інформація про народних депутатів України, їх активність*</t>
         </is>
       </c>
     </row>
@@ -2107,15 +2107,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>7Z</t>
         </is>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C60">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2162,20 +2162,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7fd5f184-eb9a-4837-9954-05d183b1d7df</t>
+          <t>7df8d2ec-ba3c-44fc-99b2-901923515c3c</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2185,19 +2185,19 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Інформація про результати кваліфікаційного оцінювання суддів*</t>
+          <t>Відомості щодо ефективності здійснення судочинства суддями*</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>848442ef-3304-4b63-acf8-a0d08ec4d3c8</t>
+          <t>7fd5f184-eb9a-4837-9954-05d183b1d7df</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C62">
@@ -2210,28 +2210,28 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Мінфін</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Інформація, що оприлюднюється згідно із Законом України “Про відкритість використання публічних коштів”*</t>
+          <t>Інформація про результати кваліфікаційного оцінювання суддів*</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>84d17612-6e46-4404-bd0b-0812be9c7c4b</t>
+          <t>848442ef-3304-4b63-acf8-a0d08ec4d3c8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Мінфін</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Реєстр декларацій родинних зв’язків та доброчесності*</t>
+          <t>Інформація, що оприлюднюється згідно із Законом України “Про відкритість використання публічних коштів”*</t>
         </is>
       </c>
     </row>
@@ -2257,15 +2257,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2282,7 +2282,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>85a68e3e-8cb0-41b8-a764-58d005063b52</t>
+          <t>84d17612-6e46-4404-bd0b-0812be9c7c4b</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2300,24 +2300,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Мін’юст</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Єдиний реєстр нотаріусів*</t>
+          <t>Реєстр декларацій родинних зв’язків та доброчесності*</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>895504af-b5e4-460a-aaea-6454467c9c70</t>
+          <t>85a68e3e-8cb0-41b8-a764-58d005063b52</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C66">
@@ -2325,33 +2325,33 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Мінекономіки</t>
+          <t>Мін’юст</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Інформація про закупівлі, що оприлюднюється згідно із Законом України “Про публічні закупівлі”*</t>
+          <t>Єдиний реєстр нотаріусів*</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8b0bebc5-5fe8-4938-96df-839fbe1cc63f</t>
+          <t>895504af-b5e4-460a-aaea-6454467c9c70</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2360,19 +2360,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Вища рада правосуддя</t>
+          <t>Мінекономіки</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Проекти порядків денних засідань Вищої ради правосуддя (та її дисциплінарних палат)*</t>
+          <t>Інформація про закупівлі, що оприлюднюється згідно із Законом України “Про публічні закупівлі”*</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8ef68b9a-777f-47ba-9bd9-66623003537a</t>
+          <t>8b0bebc5-5fe8-4938-96df-839fbe1cc63f</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2390,42 +2390,42 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Мінекономіки</t>
+          <t>Вища рада правосуддя</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Реєстри ліцензіатів, яким Мінекономіки видано ліцензії*</t>
+          <t>Проекти порядків денних засідань Вищої ради правосуддя (та її дисциплінарних палат)*</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9338e3fb-41a1-486d-a9b1-c49a0a4f7e4a</t>
+          <t>8ef68b9a-777f-47ba-9bd9-66623003537a</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7Z</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Мінекономіки</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Список суддів*</t>
+          <t>Реєстри ліцензіатів, яким Мінекономіки видано ліцензії*</t>
         </is>
       </c>
     </row>
@@ -2437,15 +2437,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>7Z</t>
         </is>
       </c>
       <c r="C70">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2462,16 +2462,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>93794ccb-5112-4707-9103-43b2c7be49dc</t>
+          <t>9338e3fb-41a1-486d-a9b1-c49a0a4f7e4a</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Пенсійний фонд України</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Дані про платників, що мають заборгованість із платежів до Пенсійного фонду України*</t>
+          <t>Список суддів*</t>
         </is>
       </c>
     </row>
@@ -2497,11 +2497,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2522,16 +2522,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>94ef9cb4-0547-4b2c-b19b-b3479a17df22</t>
+          <t>93794ccb-5112-4707-9103-43b2c7be49dc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2540,28 +2540,28 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>НКРЕКП</t>
+          <t>Пенсійний фонд України</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Реєстр об’єктів електроенергетики та електроустановок споживачів (у тому числі активних споживачів), що використовують альтернативні джерела енергії для виробництва електричної енергії*</t>
+          <t>Дані про платників, що мають заборгованість із платежів до Пенсійного фонду України*</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>98684f72-2958-4c6b-9584-e60b589c4bb1</t>
+          <t>94ef9cb4-0547-4b2c-b19b-b3479a17df22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2570,28 +2570,28 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>НКРЕКП</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Рейтингові списки кандидатів на посаду судді (зокрема в рамках добору та конкурсів на зайняття вакантних посад)*</t>
+          <t>Реєстр об’єктів електроенергетики та електроустановок споживачів (у тому числі активних споживачів), що використовують альтернативні джерела енергії для виробництва електричної енергії*</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9c3ffec5-db0c-4990-a21b-2084b3156183</t>
+          <t>98684f72-2958-4c6b-9584-e60b589c4bb1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2600,42 +2600,42 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Національне агентство з питань запобігання корупції</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Єдиний державний реєстр декларацій осіб, уповноважених на виконання функцій держави або місцевого самоврядування*</t>
+          <t>Рейтингові списки кандидатів на посаду судді (зокрема в рамках добору та конкурсів на зайняття вакантних посад)*</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>a0c5d4c8-ae68-48b0-87c2-e4548b7774d4</t>
+          <t>9c3ffec5-db0c-4990-a21b-2084b3156183</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ДСА</t>
+          <t>Національне агентство з питань запобігання корупції</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Єдиний державний реєстр судових рішень*</t>
+          <t>Єдиний державний реєстр декларацій осіб, уповноважених на виконання функцій держави або місцевого самоврядування*</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>PDF</t>
         </is>
       </c>
       <c r="C77">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2672,42 +2672,42 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>a5035866-e655-43d3-92f0-1dc54afc0ba1</t>
+          <t>a0c5d4c8-ae68-48b0-87c2-e4548b7774d4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Український національний офіс інтелектуальної власності та інновацій</t>
+          <t>ДСА</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Державний реєстр України винаходів*</t>
+          <t>Єдиний державний реєстр судових рішень*</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>a8415a28-6ce0-429a-aaa3-8776a633df1b</t>
+          <t>a5035866-e655-43d3-92f0-1dc54afc0ba1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C79">
@@ -2725,19 +2725,19 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Державний реєстр представників у справах інтелектуальної власності (патентних повірених)*</t>
+          <t>Державний реєстр України винаходів*</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>aee637b5-25fe-4b4e-85ae-b9c5331608f9</t>
+          <t>a8415a28-6ce0-429a-aaa3-8776a633df1b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C80">
@@ -2750,24 +2750,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>МОН</t>
+          <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Реєстр документів про освіту (знеособлені дані)*</t>
+          <t>Державний реєстр представників у справах інтелектуальної власності (патентних повірених)*</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>b056f552-88d0-403c-a9de-3f8652a0ad37</t>
+          <t>aee637b5-25fe-4b4e-85ae-b9c5331608f9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C81">
@@ -2780,24 +2780,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Український національний офіс інтелектуальної власності та інновацій</t>
+          <t>МОН</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Державний реєстр України компонувань напівпровідникових виробів*</t>
+          <t>Реєстр документів про освіту (знеособлені дані)*</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>b22d184c-4826-4e1d-8577-972effc5700c</t>
+          <t>b056f552-88d0-403c-a9de-3f8652a0ad37</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C82">
@@ -2805,33 +2805,33 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Мін’юст</t>
+          <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Єдиний державний реєстр нормативно-правових актів*</t>
+          <t>Державний реєстр України компонувань напівпровідникових виробів*</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>b6fb3cd4-cb7c-4561-8167-df272fc29ecd</t>
+          <t>b22d184c-4826-4e1d-8577-972effc5700c</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7Z</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C83">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2840,12 +2840,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Мін’юст</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Рішення Вищої кваліфікаційної комісії суддів України*</t>
+          <t>Єдиний державний реєстр нормативно-правових актів*</t>
         </is>
       </c>
     </row>
@@ -2857,15 +2857,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>7Z</t>
         </is>
       </c>
       <c r="C84">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="C85">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2917,15 +2917,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C86">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2942,60 +2942,60 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bb2043ef-f17f-4d36-a07f-182ae1155238</t>
+          <t>b6fb3cd4-cb7c-4561-8167-df272fc29ecd</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Український національний офіс інтелектуальної власності та інновацій</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Державний реєстр України географічних зазначень*</t>
+          <t>Рішення Вищої кваліфікаційної комісії суддів України*</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>c32e1e66-431b-40cf-893c-f4578c1ec048</t>
+          <t>bb2043ef-f17f-4d36-a07f-182ae1155238</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7Z</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Вища кваліфікаційна комісія суддів України</t>
+          <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Перелік питань, що виносяться для розгляду на засіданні Вищої кваліфікаційної комісії суддів України*</t>
+          <t>Державний реєстр України географічних зазначень*</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>7Z</t>
         </is>
       </c>
       <c r="C89">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3032,76 +3032,76 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cadd1d81-5db8-4767-9730-fb58e33260df</t>
+          <t>c32e1e66-431b-40cf-893c-f4578c1ec048</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Мін’юст</t>
+          <t>Вища кваліфікаційна комісія суддів України</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Інформація про дійсні чи недійсні бланки з Єдиного реєстру спеціальних бланків нотаріальних документів*</t>
+          <t>Перелік питань, що виносяться для розгляду на засіданні Вищої кваліфікаційної комісії суддів України*</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ce2817c8-a6da-4816-93b4-07a55085e7a7</t>
+          <t>cadd1d81-5db8-4767-9730-fb58e33260df</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Держмитслужба</t>
+          <t>Мін’юст</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Перелік об’єктів права інтелектуальної власності, зареєстрованих у митному реєстрі*</t>
+          <t>Інформація про дійсні чи недійсні бланки з Єдиного реєстру спеціальних бланків нотаріальних документів*</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>d21bd318-7c2b-493f-ba5b-c302e42110f8</t>
+          <t>ce2817c8-a6da-4816-93b4-07a55085e7a7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C92">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3110,19 +3110,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Фонд державного майна</t>
+          <t>Держмитслужба</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Єдиний реєстр об’єктів державної власності*</t>
+          <t>Перелік об’єктів права інтелектуальної власності, зареєстрованих у митному реєстрі*</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>d5d7c9bf-734d-479c-b183-2a3bfff0b1a0</t>
+          <t>d21bd318-7c2b-493f-ba5b-c302e42110f8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Агентство відновлення</t>
+          <t>Фонд державного майна</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Інформація про хід ліквідації ямковості на міжнародних, національних та регіональних автомобільних дорогах державного значення*</t>
+          <t>Єдиний реєстр об’єктів державної власності*</t>
         </is>
       </c>
     </row>
@@ -3157,15 +3157,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>неструктурований</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3187,15 +3187,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>PDF</t>
         </is>
       </c>
       <c r="C95">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>неструктурований</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3212,16 +3212,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>d9803396-e9df-4483-ae8a-835d795ed341</t>
+          <t>d5d7c9bf-734d-479c-b183-2a3bfff0b1a0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>XLS(X)</t>
         </is>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3230,12 +3230,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ДПС</t>
+          <t>Агентство відновлення</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Інформація про суб’єктів господарювання, які мають податковий борг*</t>
+          <t>Інформація про хід ліквідації ямковості на міжнародних, національних та регіональних автомобільних дорогах державного значення*</t>
         </is>
       </c>
     </row>
@@ -3247,15 +3247,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ZIP</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>архіви</t>
+          <t>структурований</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3272,37 +3272,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>de142932-b782-4925-87eb-b8934a431df3</t>
+          <t>d9803396-e9df-4483-ae8a-835d795ed341</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>ZIP</t>
         </is>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>структурований</t>
+          <t>архіви</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ДМС</t>
+          <t>ДПС</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Дані про номер та/або серію документів, що підтверджують громадянство України, посвідчують особу чи її спеціальний статус, які визнані недійсними, із зазначенням підстав визнання недійсності*</t>
+          <t>Інформація про суб’єктів господарювання, які мають податковий борг*</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>e1af20b8-c80b-4f2c-bf82-566567ef936e</t>
+          <t>de142932-b782-4925-87eb-b8934a431df3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3320,19 +3320,19 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Національна асоціація адвокатів</t>
+          <t>ДМС</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Єдиний реєстр адвокатів*</t>
+          <t>Дані про номер та/або серію документів, що підтверджують громадянство України, посвідчують особу чи її спеціальний статус, які визнані недійсними, із зазначенням підстав визнання недійсності*</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ed63c78a-761f-4cc7-8e85-29d311135c5e</t>
+          <t>e1af20b8-c80b-4f2c-bf82-566567ef936e</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3350,19 +3350,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>НКРЕКП</t>
+          <t>Національна асоціація адвокатів</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Реєстр суб’єктів природних монополій у сфері енергетики*</t>
+          <t>Єдиний реєстр адвокатів*</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>f5ef01bc-ee9e-4ab9-b7a4-023db8427634</t>
+          <t>ed63c78a-761f-4cc7-8e85-29d311135c5e</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3380,28 +3380,28 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Адміністрація судноплавства</t>
+          <t>НКРЕКП</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ліцензійний реєстр на провадження господарської діяльності з перевезення пасажирів, небезпечних вантажів та небезпечних відходів внутрішнім водним, морським транспортом*</t>
+          <t>Реєстр суб’єктів природних монополій у сфері енергетики*</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>f5ef01bc-ee9e-4ab9-b7a4-023db8427634</t>
+          <t>f29d71d0-19dd-4663-8935-4d402fac6574</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JSON</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3410,28 +3410,28 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Адміністрація судноплавства</t>
+          <t>Держпродспоживслужба</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ліцензійний реєстр на провадження господарської діяльності з перевезення пасажирів, небезпечних вантажів та небезпечних відходів внутрішнім водним, морським транспортом*</t>
+          <t>Реєстр затверджених експортних потужностей (об’єктів)*</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>fa0fe6c7-3803-426a-9655-a9d6b1112809</t>
+          <t>f5ef01bc-ee9e-4ab9-b7a4-023db8427634</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>XLS(X)</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3440,28 +3440,28 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>МКСК</t>
+          <t>Адміністрація судноплавства</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Державний реєстр національного культурного надбання*</t>
+          <t>Ліцензійний реєстр на провадження господарської діяльності з перевезення пасажирів, небезпечних вантажів та небезпечних відходів внутрішнім водним, морським транспортом*</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fded13b8-4e2c-4c48-bf14-65d0e3106463</t>
+          <t>f5ef01bc-ee9e-4ab9-b7a4-023db8427634</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>JSON</t>
         </is>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3470,40 +3470,100 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>МОЗ</t>
+          <t>Адміністрація судноплавства</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Державний реєстр лікарських засобів*</t>
+          <t>Ліцензійний реєстр на провадження господарської діяльності з перевезення пасажирів, небезпечних вантажів та небезпечних відходів внутрішнім водним, морським транспортом*</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>fa0fe6c7-3803-426a-9655-a9d6b1112809</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>XLS(X)</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>структурований</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>МКСК</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Державний реєстр національного культурного надбання*</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>fded13b8-4e2c-4c48-bf14-65d0e3106463</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>структурований</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>МОЗ</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Державний реєстр лікарських засобів*</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>fe6e707b-c7e2-487c-afe4-6a3a1dc3c49d</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>API</t>
         </is>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>структурований</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>структурований</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>Український національний офіс інтелектуальної власності та інновацій</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Відомості про опубліковані заявки на торговельні марки, які прийняті до розгляду*</t>
         </is>
